--- a/采购收支月表201907.xlsx
+++ b/采购收支月表201907.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\大锅饭账单\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94380D7E-9A66-4D68-8AF9-D3B3850AC21D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5733E755-0A19-46E5-BACE-CC3A5D094F6B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,18 +18,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>收款日期</t>
   </si>
@@ -153,6 +146,94 @@
   </si>
   <si>
     <t>方炜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸枣糕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺爱夏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘镔璟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优选订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲嘴烧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹌鹑蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻辣香干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鱼干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓜、黄桃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓜、龙眼、橙子、哈密瓜、火龙果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳酸菌蛋糕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小麻花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手撕面包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周义洪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸牛扎、小花生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓜x2、葡萄、香蕉、火龙果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饮料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰糖雪梨、蜂窝柚子茶、冰红茶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -245,7 +326,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -293,6 +374,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -393,7 +498,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="CDEBC8"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -672,11 +777,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE35"/>
+  <dimension ref="A1:AE34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -689,7 +794,7 @@
     <col min="7" max="7" width="13.5" customWidth="1"/>
     <col min="8" max="8" width="12.25" style="11" customWidth="1"/>
     <col min="9" max="9" width="16.125" customWidth="1"/>
-    <col min="10" max="10" width="41" customWidth="1"/>
+    <col min="10" max="10" width="41" style="21" customWidth="1"/>
     <col min="11" max="11" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -706,8 +811,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
@@ -717,7 +822,7 @@
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="19" t="s">
         <v>3</v>
       </c>
       <c r="K1"/>
@@ -735,12 +840,18 @@
       </c>
       <c r="C2"/>
       <c r="D2"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="2">
+        <v>43648</v>
+      </c>
+      <c r="H2" s="11">
+        <v>148.6</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="20"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -774,11 +885,18 @@
         <v>8</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="2"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="3"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="2">
+        <v>43648</v>
+      </c>
+      <c r="H3" s="11">
+        <v>19.8</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
@@ -791,10 +909,17 @@
         <v>28</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="2"/>
-      <c r="I4" s="7"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="2">
+        <v>43648</v>
+      </c>
+      <c r="H4" s="11">
+        <v>14.7</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
@@ -807,10 +932,17 @@
         <v>12</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="2"/>
-      <c r="I5" s="7"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="2">
+        <v>43648</v>
+      </c>
+      <c r="H5" s="11">
+        <v>94.5</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
@@ -823,10 +955,17 @@
         <v>10</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="2"/>
-      <c r="I6" s="13"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="2">
+        <v>43649</v>
+      </c>
+      <c r="H6" s="11">
+        <v>126.8</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
@@ -839,10 +978,17 @@
         <v>21</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="2"/>
-      <c r="I7" s="7"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="2">
+        <v>43649</v>
+      </c>
+      <c r="H7" s="11">
+        <v>32</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
@@ -855,10 +1001,17 @@
         <v>14</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="2"/>
-      <c r="I8" s="7"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="2">
+        <v>43649</v>
+      </c>
+      <c r="H8" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
@@ -871,11 +1024,18 @@
         <v>11</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="2"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="3"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="2">
+        <v>43649</v>
+      </c>
+      <c r="H9" s="11">
+        <v>47</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="20"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
@@ -888,11 +1048,18 @@
         <v>7</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="2"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="3"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="2">
+        <v>43649</v>
+      </c>
+      <c r="H10" s="11">
+        <v>79.8</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
@@ -905,11 +1072,20 @@
         <v>9</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="2"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="3"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="2">
+        <v>43650</v>
+      </c>
+      <c r="H11" s="11">
+        <v>51</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
@@ -922,11 +1098,20 @@
         <v>13</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="2"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="3"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="2">
+        <v>43654</v>
+      </c>
+      <c r="H12" s="11">
+        <v>19.5</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
@@ -939,11 +1124,20 @@
         <v>18</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="2"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="3"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="2">
+        <v>43654</v>
+      </c>
+      <c r="H13" s="11">
+        <v>80</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
@@ -956,11 +1150,18 @@
         <v>15</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="2"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="3"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="2">
+        <v>43654</v>
+      </c>
+      <c r="H14" s="11">
+        <v>27.9</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
@@ -973,10 +1174,17 @@
         <v>22</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="2"/>
-      <c r="I15" s="7"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="2">
+        <v>43654</v>
+      </c>
+      <c r="H15" s="11">
+        <v>14.8</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
@@ -989,11 +1197,18 @@
         <v>23</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="2"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="3"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="2">
+        <v>43654</v>
+      </c>
+      <c r="H16" s="11">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
@@ -1006,11 +1221,20 @@
         <v>19</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="2"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="3"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="2">
+        <v>43656</v>
+      </c>
+      <c r="H17" s="11">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
@@ -1023,11 +1247,20 @@
         <v>30</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="2"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="3"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="2">
+        <v>43656</v>
+      </c>
+      <c r="H18" s="11">
+        <v>58.75</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
@@ -1040,11 +1273,20 @@
         <v>31</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="2"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="3"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="2">
+        <v>43656</v>
+      </c>
+      <c r="H19" s="11">
+        <v>174.5</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
@@ -1057,21 +1299,24 @@
         <v>32</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
       <c r="G20" s="2"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="3"/>
+      <c r="J20" s="20"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>43648</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
       <c r="G21" s="2"/>
       <c r="I21" s="7"/>
     </row>
@@ -1079,132 +1324,167 @@
       <c r="A22" s="2">
         <v>43648</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
+      <c r="B22">
+        <v>100</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
       <c r="G22" s="2"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
+      <c r="J22" s="22"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>43648</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
+      <c r="B23">
+        <v>100</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
       <c r="G23" s="2"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="3"/>
+      <c r="J23" s="20"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>43648</v>
       </c>
+      <c r="B24">
+        <v>100</v>
+      </c>
       <c r="C24" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
+        <v>27</v>
+      </c>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
       <c r="G24" s="2"/>
       <c r="I24" s="7"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="2"/>
-      <c r="C25" s="14"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="A25" s="2">
+        <v>43648</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
       <c r="G25" s="2"/>
       <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
+      <c r="A26" s="2">
+        <v>43648</v>
+      </c>
+      <c r="B26">
+        <v>100</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
       <c r="G26" s="2"/>
       <c r="I26" s="7"/>
+      <c r="J26" s="20"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
+      <c r="A27" s="2">
+        <v>43648</v>
+      </c>
+      <c r="B27">
+        <v>100</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
       <c r="G27" s="2"/>
       <c r="I27" s="7"/>
+      <c r="J27" s="20"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
+      <c r="A28" s="2">
+        <v>43648</v>
+      </c>
+      <c r="B28">
+        <v>100</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
       <c r="G28" s="2"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="2"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="6" t="s">
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="4">
-        <f>SUM(B2:B26)</f>
-        <v>1921.83</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="5" t="s">
+      <c r="B29" s="4">
+        <f>SUM(B2:B28)</f>
+        <v>2621.83</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H30" s="12">
-        <f>SUM(H2:H29)</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="5" t="s">
+      <c r="H29" s="12">
+        <f>SUM(H2:H27)</f>
+        <v>1086.2499999999998</v>
+      </c>
+      <c r="I29" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J30" s="12">
-        <f>B30-H30</f>
-        <v>1921.83</v>
-      </c>
+      <c r="J29" s="12">
+        <f>B29-H29</f>
+        <v>1535.5800000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="23"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D31" s="3"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+    </row>
+    <row r="32" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D32" s="3"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-    </row>
-    <row r="33" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D33" s="3"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+      <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="2"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E1:F34"/>
+    <mergeCell ref="E1:F33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/采购收支月表201907.xlsx
+++ b/采购收支月表201907.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\大锅饭账单\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5733E755-0A19-46E5-BACE-CC3A5D094F6B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2DE177-924F-47AF-B8BB-2D14BAFAD5AE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
   <si>
     <t>收款日期</t>
   </si>
@@ -234,6 +234,22 @@
   </si>
   <si>
     <t>冰糖雪梨、蜂窝柚子茶、冰红茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓜、哈密瓜….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾汝威</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贡茶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -326,7 +342,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -398,6 +414,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -777,11 +796,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE34"/>
+  <dimension ref="A1:AE35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -811,8 +830,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
@@ -840,8 +859,8 @@
       </c>
       <c r="C2"/>
       <c r="D2"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="2">
         <v>43648</v>
       </c>
@@ -885,8 +904,8 @@
         <v>8</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="2">
         <v>43648</v>
       </c>
@@ -909,8 +928,8 @@
         <v>28</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
       <c r="G4" s="2">
         <v>43648</v>
       </c>
@@ -932,8 +951,8 @@
         <v>12</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="2">
         <v>43648</v>
       </c>
@@ -955,8 +974,8 @@
         <v>10</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="2">
         <v>43649</v>
       </c>
@@ -978,8 +997,8 @@
         <v>21</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="2">
         <v>43649</v>
       </c>
@@ -1001,8 +1020,8 @@
         <v>14</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
       <c r="G8" s="2">
         <v>43649</v>
       </c>
@@ -1024,8 +1043,8 @@
         <v>11</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
       <c r="G9" s="2">
         <v>43649</v>
       </c>
@@ -1048,8 +1067,8 @@
         <v>7</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
       <c r="G10" s="2">
         <v>43649</v>
       </c>
@@ -1072,8 +1091,8 @@
         <v>9</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="2">
         <v>43650</v>
       </c>
@@ -1098,8 +1117,8 @@
         <v>13</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="2">
         <v>43654</v>
       </c>
@@ -1124,8 +1143,8 @@
         <v>18</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
       <c r="G13" s="2">
         <v>43654</v>
       </c>
@@ -1150,8 +1169,8 @@
         <v>15</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
       <c r="G14" s="2">
         <v>43654</v>
       </c>
@@ -1174,8 +1193,8 @@
         <v>22</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
       <c r="G15" s="2">
         <v>43654</v>
       </c>
@@ -1197,8 +1216,8 @@
         <v>23</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
       <c r="G16" s="2">
         <v>43654</v>
       </c>
@@ -1221,8 +1240,8 @@
         <v>19</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
       <c r="G17" s="2">
         <v>43656</v>
       </c>
@@ -1247,8 +1266,8 @@
         <v>30</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
       <c r="G18" s="2">
         <v>43656</v>
       </c>
@@ -1273,8 +1292,8 @@
         <v>31</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
       <c r="G19" s="2">
         <v>43656</v>
       </c>
@@ -1299,11 +1318,20 @@
         <v>32</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="2"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="20"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="2">
+        <v>43657</v>
+      </c>
+      <c r="H20" s="11">
+        <v>76.52</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
@@ -1315,10 +1343,20 @@
       <c r="C21" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="2"/>
-      <c r="I21" s="7"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="2">
+        <v>43661</v>
+      </c>
+      <c r="H21" s="11">
+        <v>61.88</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
@@ -1330,10 +1368,17 @@
       <c r="C22" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="2"/>
-      <c r="I22" s="7"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="2">
+        <v>43661</v>
+      </c>
+      <c r="H22" s="11">
+        <v>60.58</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="J22" s="22"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
@@ -1346,10 +1391,17 @@
       <c r="C23" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="2"/>
-      <c r="I23" s="7"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="2">
+        <v>43663</v>
+      </c>
+      <c r="H23" s="11">
+        <v>206.3</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="J23" s="20"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
@@ -1362,8 +1414,8 @@
       <c r="C24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
       <c r="G24" s="2"/>
       <c r="I24" s="7"/>
     </row>
@@ -1374,8 +1426,8 @@
       <c r="C25" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
       <c r="G25" s="2"/>
       <c r="I25" s="7"/>
     </row>
@@ -1389,8 +1441,8 @@
       <c r="C26" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
       <c r="G26" s="2"/>
       <c r="I26" s="7"/>
       <c r="J26" s="20"/>
@@ -1405,8 +1457,8 @@
       <c r="C27" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
       <c r="G27" s="2"/>
       <c r="I27" s="7"/>
       <c r="J27" s="20"/>
@@ -1421,70 +1473,84 @@
       <c r="C28" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
       <c r="G28" s="2"/>
       <c r="I28" s="7"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+      <c r="B29">
+        <v>50</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="2"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="20"/>
+    </row>
+    <row r="30" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="4">
-        <f>SUM(B2:B28)</f>
-        <v>2621.83</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="5" t="s">
+      <c r="B30" s="4">
+        <f>SUM(B2:B29)</f>
+        <v>2671.83</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H30" s="12">
         <f>SUM(H2:H27)</f>
-        <v>1086.2499999999998</v>
-      </c>
-      <c r="I29" s="5" t="s">
+        <v>1491.5299999999997</v>
+      </c>
+      <c r="I30" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J29" s="12">
-        <f>B29-H29</f>
-        <v>1535.5800000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="23"/>
+      <c r="J30" s="12">
+        <f>B30-H30</f>
+        <v>1180.3000000000002</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="D31" s="3"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-    </row>
-    <row r="32" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="23"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D32" s="3"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+    </row>
+    <row r="33" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D33" s="3"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="2"/>
-      <c r="C34" s="3"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D34" s="3"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E1:F33"/>
+    <mergeCell ref="E1:F34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/采购收支月表201907.xlsx
+++ b/采购收支月表201907.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\大锅饭账单\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2DE177-924F-47AF-B8BB-2D14BAFAD5AE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE5B716-9FFA-46D6-B692-4A44767BC968}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="72">
   <si>
     <t>收款日期</t>
   </si>
@@ -250,6 +250,58 @@
   </si>
   <si>
     <t>贡茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枣子、葡萄、香蕉、西瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巧克力饼干、老婆饼、蛋糕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三只松鼠蛋糕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋黄酥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼豆腐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芬达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水蜜桃、西瓜…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁安云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆腐花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ糖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棒棒冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优选订单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -342,7 +394,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -414,6 +466,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -796,11 +857,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE35"/>
+  <dimension ref="A1:AE48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -830,8 +891,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
@@ -859,8 +920,8 @@
       </c>
       <c r="C2"/>
       <c r="D2"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
       <c r="G2" s="2">
         <v>43648</v>
       </c>
@@ -904,8 +965,8 @@
         <v>8</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
       <c r="G3" s="2">
         <v>43648</v>
       </c>
@@ -928,8 +989,8 @@
         <v>28</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
       <c r="G4" s="2">
         <v>43648</v>
       </c>
@@ -951,8 +1012,8 @@
         <v>12</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
       <c r="G5" s="2">
         <v>43648</v>
       </c>
@@ -974,8 +1035,8 @@
         <v>10</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
       <c r="G6" s="2">
         <v>43649</v>
       </c>
@@ -997,8 +1058,8 @@
         <v>21</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="2">
         <v>43649</v>
       </c>
@@ -1020,8 +1081,8 @@
         <v>14</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="2">
         <v>43649</v>
       </c>
@@ -1043,8 +1104,8 @@
         <v>11</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="2">
         <v>43649</v>
       </c>
@@ -1067,8 +1128,8 @@
         <v>7</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="2">
         <v>43649</v>
       </c>
@@ -1091,8 +1152,8 @@
         <v>9</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="2">
         <v>43650</v>
       </c>
@@ -1117,8 +1178,8 @@
         <v>13</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
       <c r="G12" s="2">
         <v>43654</v>
       </c>
@@ -1143,8 +1204,8 @@
         <v>18</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
       <c r="G13" s="2">
         <v>43654</v>
       </c>
@@ -1169,8 +1230,8 @@
         <v>15</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="2">
         <v>43654</v>
       </c>
@@ -1193,8 +1254,8 @@
         <v>22</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="2">
         <v>43654</v>
       </c>
@@ -1216,8 +1277,8 @@
         <v>23</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
       <c r="G16" s="2">
         <v>43654</v>
       </c>
@@ -1240,8 +1301,8 @@
         <v>19</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
       <c r="G17" s="2">
         <v>43656</v>
       </c>
@@ -1266,8 +1327,8 @@
         <v>30</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
       <c r="G18" s="2">
         <v>43656</v>
       </c>
@@ -1292,8 +1353,8 @@
         <v>31</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
       <c r="G19" s="2">
         <v>43656</v>
       </c>
@@ -1318,8 +1379,8 @@
         <v>32</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
       <c r="G20" s="2">
         <v>43657</v>
       </c>
@@ -1343,8 +1404,8 @@
       <c r="C21" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
       <c r="G21" s="2">
         <v>43661</v>
       </c>
@@ -1368,8 +1429,8 @@
       <c r="C22" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
       <c r="G22" s="2">
         <v>43661</v>
       </c>
@@ -1391,8 +1452,8 @@
       <c r="C23" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
       <c r="G23" s="2">
         <v>43663</v>
       </c>
@@ -1414,10 +1475,20 @@
       <c r="C24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="2"/>
-      <c r="I24" s="7"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="2">
+        <v>43664</v>
+      </c>
+      <c r="H24" s="11">
+        <v>70.91</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
@@ -1426,10 +1497,20 @@
       <c r="C25" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="2"/>
-      <c r="I25" s="7"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="2">
+        <v>43664</v>
+      </c>
+      <c r="H25" s="11">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
@@ -1441,10 +1522,17 @@
       <c r="C26" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="2"/>
-      <c r="I26" s="7"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="2">
+        <v>43664</v>
+      </c>
+      <c r="H26" s="11">
+        <v>87.6</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="J26" s="20"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
@@ -1457,10 +1545,17 @@
       <c r="C27" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="2"/>
-      <c r="I27" s="7"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="2">
+        <v>43664</v>
+      </c>
+      <c r="H27" s="11">
+        <v>36.9</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J27" s="20"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
@@ -1473,10 +1568,17 @@
       <c r="C28" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="2"/>
-      <c r="I28" s="7"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="2">
+        <v>43664</v>
+      </c>
+      <c r="H28" s="11">
+        <v>28.8</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="J28" s="20"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
@@ -1487,70 +1589,275 @@
       <c r="C29" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="2"/>
-      <c r="I29" s="7"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="2">
+        <v>43664</v>
+      </c>
+      <c r="H29" s="11">
+        <v>37.6</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+      <c r="C30" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="2">
+        <v>43664</v>
+      </c>
+      <c r="H30" s="11">
+        <v>71.7</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J30" s="20"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+      <c r="C31" s="26"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="2">
+        <v>43667</v>
+      </c>
+      <c r="H31" s="11">
+        <v>82.86</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+      <c r="C32" s="26"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="2">
+        <v>43667</v>
+      </c>
+      <c r="H32" s="11">
+        <v>35.96</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+      <c r="C33" s="27"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="2">
+        <v>43667</v>
+      </c>
+      <c r="H33" s="11">
+        <v>56.92</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+      <c r="C34" s="27"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="2">
+        <v>43669</v>
+      </c>
+      <c r="H34" s="11">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+      <c r="C35" s="27"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="2">
+        <v>43672</v>
+      </c>
+      <c r="H35" s="13">
+        <v>253.1</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+      <c r="C36" s="26"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="2">
+        <v>43673</v>
+      </c>
+      <c r="H36" s="11">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J36" s="20"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+      <c r="C37" s="27"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="2">
+        <v>43673</v>
+      </c>
+      <c r="H37" s="11">
+        <v>49.6</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J37" s="20"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+      <c r="C38" s="27"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="2">
+        <v>43675</v>
+      </c>
+      <c r="H38" s="11">
+        <v>29.7</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+      <c r="C39" s="27"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="2">
+        <v>43675</v>
+      </c>
+      <c r="H39" s="11">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+      <c r="C40" s="27"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="2">
+        <v>43675</v>
+      </c>
+      <c r="H40" s="13">
+        <v>67.94</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+      <c r="C41" s="28"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="2"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A42" s="2"/>
+      <c r="C42" s="28"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="2"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="20"/>
+    </row>
+    <row r="43" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A43" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="4">
-        <f>SUM(B2:B29)</f>
+      <c r="B43" s="4">
+        <f>SUM(B2:B36)</f>
         <v>2671.83</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="5" t="s">
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H30" s="12">
-        <f>SUM(H2:H27)</f>
-        <v>1491.5299999999997</v>
-      </c>
-      <c r="I30" s="5" t="s">
+      <c r="H43" s="12">
+        <f>SUM(H2:H42)</f>
+        <v>2599.3199999999997</v>
+      </c>
+      <c r="I43" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J30" s="12">
-        <f>B30-H30</f>
-        <v>1180.3000000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="23"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="D32" s="3"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-    </row>
-    <row r="33" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D33" s="3"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D34" s="3"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="2"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="J43" s="12">
+        <f>B43-H43</f>
+        <v>72.510000000000218</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="23"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D45" s="3"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+    </row>
+    <row r="46" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D46" s="3"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D47" s="3"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A48" s="2"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E1:F34"/>
+    <mergeCell ref="E1:F47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/采购收支月表201907.xlsx
+++ b/采购收支月表201907.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\大锅饭账单\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE5B716-9FFA-46D6-B692-4A44767BC968}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9449DD4-CEDC-4076-9BD5-B7F822F1A5E9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
   <si>
     <t>收款日期</t>
   </si>
@@ -859,9 +859,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J63" sqref="J63"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1654,8 +1654,8 @@
       </c>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="2"/>
+    <row r="33" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A33" s="6"/>
       <c r="C33" s="27"/>
       <c r="E33" s="29"/>
       <c r="F33" s="29"/>
@@ -1787,8 +1787,15 @@
       <c r="C41" s="28"/>
       <c r="E41" s="29"/>
       <c r="F41" s="29"/>
-      <c r="G41" s="2"/>
-      <c r="I41" s="7"/>
+      <c r="G41" s="2">
+        <v>43676</v>
+      </c>
+      <c r="H41" s="11">
+        <v>60.4</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="J41" s="20"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
@@ -1817,14 +1824,14 @@
       </c>
       <c r="H43" s="12">
         <f>SUM(H2:H42)</f>
-        <v>2599.3199999999997</v>
+        <v>2659.72</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J43" s="12">
         <f>B43-H43</f>
-        <v>72.510000000000218</v>
+        <v>12.110000000000127</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
